--- a/Schedule_Timeline.xlsx
+++ b/Schedule_Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfani\Google_Drive\Academic\UWindsor\Course\COMP8730_NLP\W2021_Hossein_Fani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86395EB-D190-4213-BD27-43CEA3708592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298344A-EF72-4164-8000-5B99DC8C6ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55BA964F-EA88-48C3-92A6-DF32EF8A2B7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{55BA964F-EA88-48C3-92A6-DF32EF8A2B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -715,24 +715,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,17 +734,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1099,7 +1099,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+      <c r="A2" s="47">
         <v>0.29166666666666669</v>
       </c>
       <c r="B2" s="4"/>
@@ -1152,18 +1152,18 @@
         <v>77</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="45"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="7"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="45"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1184,11 +1184,11 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="46" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="46" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="4"/>
@@ -1200,9 +1200,9 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="27"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -1212,9 +1212,9 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -1224,9 +1224,9 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -1236,9 +1236,9 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
@@ -1248,9 +1248,9 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="27"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="27"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -1260,9 +1260,9 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="27"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
@@ -1272,9 +1272,9 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="27"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -1284,9 +1284,9 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="27"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="27"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="45" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="45" t="s">
         <v>51</v>
       </c>
       <c r="G14" s="4"/>
@@ -1312,9 +1312,9 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="28"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="28"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -1324,9 +1324,9 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="28"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
@@ -1336,9 +1336,9 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="28"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="28"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
@@ -1348,9 +1348,9 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="28"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="28"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
@@ -1360,9 +1360,9 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="28"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="28"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
@@ -1372,9 +1372,9 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="28"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="28"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5403FA3-08AA-406E-B89C-5C17E0D91DF0}">
   <dimension ref="A1:CT65"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="CK67" sqref="CK67"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1430,7 @@
     <col min="5" max="5" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="11" customWidth="1"/>
     <col min="10" max="10" width="10.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="11" bestFit="1" customWidth="1"/>
@@ -1508,15 +1508,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1620,15 +1620,15 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H6" s="18" t="s">
@@ -1655,13 +1655,13 @@
     </row>
     <row r="7" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="17"/>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="29" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="33"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="16" t="s">
         <v>44</v>
       </c>
@@ -1682,15 +1682,15 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
     </row>
     <row r="10" spans="1:91" x14ac:dyDescent="0.25">
       <c r="O10" s="18" t="s">
@@ -1717,7 +1717,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="O11" s="17"/>
-      <c r="P11" s="38" t="s">
+      <c r="P11" s="32" t="s">
         <v>58</v>
       </c>
       <c r="Q11" s="20" t="s">
@@ -1737,7 +1737,7 @@
       <c r="Q12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="36"/>
+      <c r="R12" s="30"/>
       <c r="S12" s="13" t="s">
         <v>8</v>
       </c>
@@ -1745,15 +1745,15 @@
       <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="V13" s="29" t="s">
+      <c r="V13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
     </row>
     <row r="14" spans="1:91" x14ac:dyDescent="0.25">
       <c r="V14" s="18" t="s">
@@ -1780,7 +1780,7 @@
     </row>
     <row r="15" spans="1:91" x14ac:dyDescent="0.25">
       <c r="V15" s="17"/>
-      <c r="W15" s="35" t="s">
+      <c r="W15" s="29" t="s">
         <v>56</v>
       </c>
       <c r="X15" s="20" t="s">
@@ -1795,7 +1795,7 @@
     </row>
     <row r="16" spans="1:91" x14ac:dyDescent="0.25">
       <c r="V16" s="21"/>
-      <c r="W16" s="37" t="s">
+      <c r="W16" s="31" t="s">
         <v>55</v>
       </c>
       <c r="X16" s="20" t="s">
@@ -1820,15 +1820,15 @@
       <c r="AB17" s="12"/>
     </row>
     <row r="18" spans="22:49" x14ac:dyDescent="0.25">
-      <c r="AC18" s="29" t="s">
+      <c r="AC18" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
     </row>
     <row r="19" spans="22:49" x14ac:dyDescent="0.25">
       <c r="AC19" s="18" t="s">
@@ -1855,7 +1855,7 @@
     </row>
     <row r="20" spans="22:49" x14ac:dyDescent="0.25">
       <c r="AC20" s="17"/>
-      <c r="AD20" s="37" t="s">
+      <c r="AD20" s="31" t="s">
         <v>55</v>
       </c>
       <c r="AE20" s="16" t="s">
@@ -1870,7 +1870,7 @@
     </row>
     <row r="21" spans="22:49" x14ac:dyDescent="0.25">
       <c r="AC21" s="21"/>
-      <c r="AD21" s="34" t="s">
+      <c r="AD21" s="28" t="s">
         <v>59</v>
       </c>
       <c r="AE21" s="20" t="s">
@@ -1895,15 +1895,15 @@
       <c r="AI22" s="12"/>
     </row>
     <row r="23" spans="22:49" x14ac:dyDescent="0.25">
-      <c r="AJ23" s="29" t="s">
+      <c r="AJ23" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="29"/>
-      <c r="AM23" s="29"/>
-      <c r="AN23" s="29"/>
-      <c r="AO23" s="29"/>
-      <c r="AP23" s="29"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
     </row>
     <row r="24" spans="22:49" x14ac:dyDescent="0.25">
       <c r="AJ24" s="18" t="s">
@@ -1930,7 +1930,7 @@
     </row>
     <row r="25" spans="22:49" x14ac:dyDescent="0.25">
       <c r="AJ25" s="17"/>
-      <c r="AK25" s="39" t="s">
+      <c r="AK25" s="33" t="s">
         <v>62</v>
       </c>
       <c r="AL25" s="16" t="s">
@@ -1945,24 +1945,24 @@
     </row>
     <row r="26" spans="22:49" x14ac:dyDescent="0.25">
       <c r="AJ26" s="21"/>
-      <c r="AK26" s="48" t="s">
+      <c r="AK26" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="AL26" s="33"/>
+      <c r="AL26" s="27"/>
       <c r="AM26" s="20"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="33"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
       <c r="AP26" s="19"/>
     </row>
     <row r="27" spans="22:49" x14ac:dyDescent="0.25">
       <c r="AJ27" s="21"/>
-      <c r="AK27" s="49" t="s">
+      <c r="AK27" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AL27" s="33"/>
+      <c r="AL27" s="27"/>
       <c r="AM27" s="20"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
       <c r="AP27" s="19"/>
     </row>
     <row r="28" spans="22:49" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
     </row>
     <row r="31" spans="22:49" x14ac:dyDescent="0.25">
       <c r="AQ31" s="17"/>
-      <c r="AR31" s="37" t="s">
+      <c r="AR31" s="31" t="s">
         <v>64</v>
       </c>
       <c r="AS31" s="16" t="s">
@@ -2041,15 +2041,15 @@
       <c r="AW32" s="12"/>
     </row>
     <row r="33" spans="50:77" x14ac:dyDescent="0.25">
-      <c r="AX33" s="29" t="s">
+      <c r="AX33" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="AY33" s="29"/>
-      <c r="AZ33" s="29"/>
-      <c r="BA33" s="29"/>
-      <c r="BB33" s="29"/>
-      <c r="BC33" s="29"/>
-      <c r="BD33" s="29"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="49"/>
+      <c r="BA33" s="49"/>
+      <c r="BB33" s="49"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="49"/>
     </row>
     <row r="34" spans="50:77" x14ac:dyDescent="0.25">
       <c r="AX34" s="18" t="s">
@@ -2091,17 +2091,17 @@
     </row>
     <row r="36" spans="50:77" x14ac:dyDescent="0.25">
       <c r="AX36" s="21"/>
-      <c r="AY36" s="49" t="s">
+      <c r="AY36" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AZ36" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA36" s="33"/>
-      <c r="BB36" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC36" s="33"/>
+      <c r="AZ36" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA36" s="27"/>
+      <c r="BB36" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC36" s="27"/>
       <c r="BD36" s="19"/>
     </row>
     <row r="37" spans="50:77" x14ac:dyDescent="0.25">
@@ -2116,15 +2116,15 @@
       <c r="BD37" s="12"/>
     </row>
     <row r="38" spans="50:77" x14ac:dyDescent="0.25">
-      <c r="BE38" s="29" t="s">
+      <c r="BE38" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="BF38" s="29"/>
-      <c r="BG38" s="29"/>
-      <c r="BH38" s="29"/>
-      <c r="BI38" s="29"/>
-      <c r="BJ38" s="29"/>
-      <c r="BK38" s="29"/>
+      <c r="BF38" s="49"/>
+      <c r="BG38" s="49"/>
+      <c r="BH38" s="49"/>
+      <c r="BI38" s="49"/>
+      <c r="BJ38" s="49"/>
+      <c r="BK38" s="49"/>
     </row>
     <row r="39" spans="50:77" x14ac:dyDescent="0.25">
       <c r="BE39" s="18" t="s">
@@ -2166,17 +2166,17 @@
     </row>
     <row r="41" spans="50:77" x14ac:dyDescent="0.25">
       <c r="BE41" s="21"/>
-      <c r="BF41" s="49" t="s">
+      <c r="BF41" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="BG41" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="BH41" s="33"/>
-      <c r="BI41" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ41" s="33"/>
+      <c r="BG41" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH41" s="27"/>
+      <c r="BI41" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ41" s="27"/>
       <c r="BK41" s="19"/>
     </row>
     <row r="42" spans="50:77" x14ac:dyDescent="0.25">
@@ -2191,15 +2191,15 @@
       <c r="BK42" s="12"/>
     </row>
     <row r="43" spans="50:77" x14ac:dyDescent="0.25">
-      <c r="BL43" s="29" t="s">
+      <c r="BL43" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="BM43" s="29"/>
-      <c r="BN43" s="29"/>
-      <c r="BO43" s="29"/>
-      <c r="BP43" s="29"/>
-      <c r="BQ43" s="29"/>
-      <c r="BR43" s="29"/>
+      <c r="BM43" s="49"/>
+      <c r="BN43" s="49"/>
+      <c r="BO43" s="49"/>
+      <c r="BP43" s="49"/>
+      <c r="BQ43" s="49"/>
+      <c r="BR43" s="49"/>
     </row>
     <row r="44" spans="50:77" x14ac:dyDescent="0.25">
       <c r="BL44" s="18" t="s">
@@ -2226,7 +2226,7 @@
     </row>
     <row r="45" spans="50:77" x14ac:dyDescent="0.25">
       <c r="BL45" s="21"/>
-      <c r="BM45" s="40" t="s">
+      <c r="BM45" s="34" t="s">
         <v>84</v>
       </c>
       <c r="BN45" s="20" t="s">
@@ -2241,7 +2241,7 @@
     </row>
     <row r="46" spans="50:77" x14ac:dyDescent="0.25">
       <c r="BL46" s="21"/>
-      <c r="BM46" s="50" t="s">
+      <c r="BM46" s="42" t="s">
         <v>70</v>
       </c>
       <c r="BN46" s="20"/>
@@ -2266,15 +2266,15 @@
       <c r="BR47" s="12"/>
     </row>
     <row r="48" spans="50:77" x14ac:dyDescent="0.25">
-      <c r="BS48" s="30" t="s">
+      <c r="BS48" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="BT48" s="31"/>
-      <c r="BU48" s="31"/>
-      <c r="BV48" s="31"/>
-      <c r="BW48" s="31"/>
-      <c r="BX48" s="31"/>
-      <c r="BY48" s="32"/>
+      <c r="BT48" s="51"/>
+      <c r="BU48" s="51"/>
+      <c r="BV48" s="51"/>
+      <c r="BW48" s="51"/>
+      <c r="BX48" s="51"/>
+      <c r="BY48" s="52"/>
     </row>
     <row r="49" spans="71:98" x14ac:dyDescent="0.25">
       <c r="BS49" s="18" t="s">
@@ -2301,7 +2301,7 @@
     </row>
     <row r="50" spans="71:98" x14ac:dyDescent="0.25">
       <c r="BS50" s="17"/>
-      <c r="BT50" s="40" t="s">
+      <c r="BT50" s="34" t="s">
         <v>69</v>
       </c>
       <c r="BU50" s="16" t="s">
@@ -2316,22 +2316,22 @@
     </row>
     <row r="51" spans="71:98" x14ac:dyDescent="0.25">
       <c r="BS51" s="21"/>
-      <c r="BT51" s="50" t="s">
+      <c r="BT51" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="BU51" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="BV51" s="33"/>
-      <c r="BW51" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="BX51" s="33"/>
+      <c r="BU51" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV51" s="27"/>
+      <c r="BW51" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX51" s="27"/>
       <c r="BY51" s="19"/>
     </row>
     <row r="52" spans="71:98" x14ac:dyDescent="0.25">
       <c r="BS52" s="14"/>
-      <c r="BT52" s="52" t="s">
+      <c r="BT52" s="44" t="s">
         <v>81</v>
       </c>
       <c r="BU52" s="13"/>
@@ -2341,15 +2341,15 @@
       <c r="BY52" s="12"/>
     </row>
     <row r="53" spans="71:98" x14ac:dyDescent="0.25">
-      <c r="BZ53" s="29" t="s">
+      <c r="BZ53" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="CA53" s="29"/>
-      <c r="CB53" s="29"/>
-      <c r="CC53" s="29"/>
-      <c r="CD53" s="29"/>
-      <c r="CE53" s="29"/>
-      <c r="CF53" s="29"/>
+      <c r="CA53" s="49"/>
+      <c r="CB53" s="49"/>
+      <c r="CC53" s="49"/>
+      <c r="CD53" s="49"/>
+      <c r="CE53" s="49"/>
+      <c r="CF53" s="49"/>
     </row>
     <row r="54" spans="71:98" x14ac:dyDescent="0.25">
       <c r="BZ54" s="18" t="s">
@@ -2376,7 +2376,7 @@
     </row>
     <row r="55" spans="71:98" x14ac:dyDescent="0.25">
       <c r="BZ55" s="21"/>
-      <c r="CA55" s="41" t="s">
+      <c r="CA55" s="35" t="s">
         <v>70</v>
       </c>
       <c r="CB55" s="20" t="s">
@@ -2391,7 +2391,7 @@
     </row>
     <row r="56" spans="71:98" x14ac:dyDescent="0.25">
       <c r="BZ56" s="14"/>
-      <c r="CA56" s="52" t="s">
+      <c r="CA56" s="44" t="s">
         <v>82</v>
       </c>
       <c r="CB56" s="13" t="s">
@@ -2405,15 +2405,15 @@
       <c r="CF56" s="12"/>
     </row>
     <row r="57" spans="71:98" x14ac:dyDescent="0.25">
-      <c r="CG57" s="29" t="s">
+      <c r="CG57" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="CH57" s="29"/>
-      <c r="CI57" s="29"/>
-      <c r="CJ57" s="29"/>
-      <c r="CK57" s="29"/>
-      <c r="CL57" s="29"/>
-      <c r="CM57" s="29"/>
+      <c r="CH57" s="49"/>
+      <c r="CI57" s="49"/>
+      <c r="CJ57" s="49"/>
+      <c r="CK57" s="49"/>
+      <c r="CL57" s="49"/>
+      <c r="CM57" s="49"/>
     </row>
     <row r="58" spans="71:98" x14ac:dyDescent="0.25">
       <c r="CG58" s="18" t="s">
@@ -2440,14 +2440,14 @@
     </row>
     <row r="59" spans="71:98" x14ac:dyDescent="0.25">
       <c r="CG59" s="17"/>
-      <c r="CH59" s="41" t="s">
+      <c r="CH59" s="35" t="s">
         <v>71</v>
       </c>
       <c r="CI59" s="16" t="s">
         <v>17</v>
       </c>
       <c r="CJ59" s="16"/>
-      <c r="CK59" s="44" t="s">
+      <c r="CK59" s="38" t="s">
         <v>73</v>
       </c>
       <c r="CL59" s="16"/>
@@ -2455,22 +2455,22 @@
     </row>
     <row r="60" spans="71:98" x14ac:dyDescent="0.25">
       <c r="CG60" s="21"/>
-      <c r="CH60" s="51" t="s">
+      <c r="CH60" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="CI60" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ60" s="33"/>
-      <c r="CK60" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="CL60" s="33"/>
+      <c r="CI60" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ60" s="27"/>
+      <c r="CK60" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="CL60" s="27"/>
       <c r="CM60" s="19"/>
     </row>
     <row r="61" spans="71:98" x14ac:dyDescent="0.25">
       <c r="CG61" s="14"/>
-      <c r="CH61" s="52" t="s">
+      <c r="CH61" s="44" t="s">
         <v>83</v>
       </c>
       <c r="CI61" s="13"/>
@@ -2480,15 +2480,15 @@
       <c r="CM61" s="12"/>
     </row>
     <row r="62" spans="71:98" x14ac:dyDescent="0.25">
-      <c r="CN62" s="29" t="s">
+      <c r="CN62" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="CO62" s="29"/>
-      <c r="CP62" s="29"/>
-      <c r="CQ62" s="29"/>
-      <c r="CR62" s="29"/>
-      <c r="CS62" s="29"/>
-      <c r="CT62" s="29"/>
+      <c r="CO62" s="49"/>
+      <c r="CP62" s="49"/>
+      <c r="CQ62" s="49"/>
+      <c r="CR62" s="49"/>
+      <c r="CS62" s="49"/>
+      <c r="CT62" s="49"/>
     </row>
     <row r="63" spans="71:98" x14ac:dyDescent="0.25">
       <c r="CN63" s="18" t="s">
@@ -2515,10 +2515,10 @@
     </row>
     <row r="64" spans="71:98" x14ac:dyDescent="0.25">
       <c r="CN64" s="17"/>
-      <c r="CO64" s="41" t="s">
+      <c r="CO64" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="CP64" s="43" t="s">
+      <c r="CP64" s="37" t="s">
         <v>75</v>
       </c>
       <c r="CQ64" s="16"/>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="65" spans="92:98" x14ac:dyDescent="0.25">
       <c r="CN65" s="14"/>
-      <c r="CO65" s="42" t="s">
+      <c r="CO65" s="36" t="s">
         <v>86</v>
       </c>
       <c r="CP65" s="13" t="s">
